--- a/data/raw/raw_data.xlsx
+++ b/data/raw/raw_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benmcguirk/Documents/CompSci/PhDs/UGI cancer interview task/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{30A647F0-4056-5046-B134-02C7ED0B4267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B954C87-A50D-2D4C-AA0A-55E50DAB4752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1760" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="1320" yWindow="1760" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data.xlsx" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>case</t>
   </si>
@@ -34,52 +34,13 @@
     <t>density</t>
   </si>
   <si>
-    <t>(measure of asymmetry)</t>
-  </si>
-  <si>
-    <t>(measure of 'tailedness')</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>Std. Dev.</t>
-  </si>
-  <si>
-    <t>Skewness</t>
-  </si>
-  <si>
-    <t>Kurtosis</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Body mass index</t>
-  </si>
-  <si>
-    <t>Mammographic density</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -557,10 +518,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -915,11 +874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1066"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1066"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,7 +886,7 @@
     <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -954,14 +913,8 @@
       <c r="D2">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -974,32 +927,8 @@
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1012,32 +941,8 @@
       <c r="D4">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>50.165258219999998</v>
-      </c>
-      <c r="J4">
-        <v>49</v>
-      </c>
-      <c r="K4">
-        <v>48</v>
-      </c>
-      <c r="L4">
-        <v>35</v>
-      </c>
-      <c r="M4">
-        <v>6.2130800170000002</v>
-      </c>
-      <c r="N4">
-        <v>0.42570080199999999</v>
-      </c>
-      <c r="O4">
-        <v>3.8387878E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1050,32 +955,8 @@
       <c r="D5">
         <v>40</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>26.717445189999999</v>
-      </c>
-      <c r="J5">
-        <v>25.7</v>
-      </c>
-      <c r="K5">
-        <v>30.1</v>
-      </c>
-      <c r="L5">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="M5">
-        <v>4.834622939</v>
-      </c>
-      <c r="N5">
-        <v>1.088298161</v>
-      </c>
-      <c r="O5">
-        <v>1.4649004290000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1088,32 +969,8 @@
       <c r="D6">
         <v>40</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>44.450704229999999</v>
-      </c>
-      <c r="J6">
-        <v>40</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <v>30.175764279999999</v>
-      </c>
-      <c r="N6">
-        <v>2.1199819999999999E-3</v>
-      </c>
-      <c r="O6">
-        <v>-1.3397216160000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1127,7 +984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1141,7 +998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1155,7 +1012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1169,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1183,7 +1040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1197,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1211,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1225,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1239,7 +1096,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1765,7 +1622,7 @@
         <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>80</v>
@@ -1793,7 +1650,7 @@
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2675,7 +2532,7 @@
         <v>45</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D118">
         <v>70</v>
@@ -4229,7 +4086,7 @@
         <v>47</v>
       </c>
       <c r="C229" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D229">
         <v>25</v>
@@ -4677,7 +4534,7 @@
         <v>49</v>
       </c>
       <c r="C261" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -4957,7 +4814,7 @@
         <v>50</v>
       </c>
       <c r="C281" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D281">
         <v>45</v>
@@ -5097,7 +4954,7 @@
         <v>56</v>
       </c>
       <c r="C291" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D291">
         <v>10</v>
@@ -5671,7 +5528,7 @@
         <v>58</v>
       </c>
       <c r="C332" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D332">
         <v>45</v>
@@ -6203,7 +6060,7 @@
         <v>50</v>
       </c>
       <c r="C370" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D370">
         <v>30</v>
@@ -7197,7 +7054,7 @@
         <v>45</v>
       </c>
       <c r="C441" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D441">
         <v>55</v>
@@ -8947,7 +8804,7 @@
         <v>56</v>
       </c>
       <c r="C566" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D566">
         <v>90</v>
@@ -10529,7 +10386,7 @@
         <v>63</v>
       </c>
       <c r="C679" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D679">
         <v>0</v>
@@ -11397,7 +11254,7 @@
         <v>49</v>
       </c>
       <c r="C741" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D741">
         <v>40</v>
@@ -12685,7 +12542,7 @@
         <v>49</v>
       </c>
       <c r="C833" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D833">
         <v>60</v>
@@ -13455,7 +13312,7 @@
         <v>48</v>
       </c>
       <c r="C888" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D888">
         <v>20</v>
@@ -13679,7 +13536,7 @@
         <v>35</v>
       </c>
       <c r="C904" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D904">
         <v>30</v>
